--- a/sih24_stmts.xlsx
+++ b/sih24_stmts.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ic4dm\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\sih\SIH25_prep\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90B00348-D335-42F7-B2B5-C1330BDAC7C9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E862163-214C-405A-9247-185714A44448}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12105" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sih_ps" sheetId="1" r:id="rId1"/>
@@ -3030,22 +3030,16 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -3407,51 +3401,51 @@
   </sheetPr>
   <dimension ref="A1:H247"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F66" sqref="F66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="50.140625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.140625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="16.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="68.28515625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="22.42578125" style="4" customWidth="1"/>
-    <col min="8" max="8" width="47.7109375" style="4" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="50.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="68.28515625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="22.42578125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="47.7109375" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>832</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="3" t="s">
         <v>831</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="3" t="s">
         <v>830</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="3" t="s">
         <v>829</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="3" t="s">
         <v>828</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="3" t="s">
         <v>827</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="3" t="s">
         <v>825</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="3" t="s">
         <v>826</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -3477,7 +3471,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -3503,7 +3497,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
@@ -3529,7 +3523,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>15</v>
       </c>
@@ -3555,7 +3549,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>18</v>
       </c>
@@ -3581,7 +3575,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>21</v>
       </c>
@@ -3607,7 +3601,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>24</v>
       </c>
@@ -3633,7 +3627,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>27</v>
       </c>
@@ -3659,7 +3653,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>30</v>
       </c>
@@ -3685,7 +3679,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>33</v>
       </c>
@@ -3711,7 +3705,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>36</v>
       </c>
@@ -3737,7 +3731,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>39</v>
       </c>
@@ -3763,7 +3757,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>42</v>
       </c>
@@ -3789,7 +3783,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>45</v>
       </c>
@@ -3815,7 +3809,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>48</v>
       </c>
@@ -3841,7 +3835,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>51</v>
       </c>
@@ -3867,7 +3861,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>54</v>
       </c>
@@ -3893,7 +3887,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>57</v>
       </c>
@@ -3919,7 +3913,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>60</v>
       </c>
@@ -3945,7 +3939,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>64</v>
       </c>
@@ -3971,7 +3965,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="22" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>69</v>
       </c>
@@ -3997,7 +3991,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="23" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="180" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>72</v>
       </c>
@@ -4023,7 +4017,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="24" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="105" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>76</v>
       </c>
@@ -4049,7 +4043,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="25" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" ht="180" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>79</v>
       </c>
@@ -4075,7 +4069,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="26" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" ht="165" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>82</v>
       </c>
@@ -4101,7 +4095,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="27" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" ht="180" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>85</v>
       </c>
@@ -4127,7 +4121,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="28" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" ht="165" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>88</v>
       </c>
@@ -4153,7 +4147,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="29" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" ht="165" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>91</v>
       </c>
@@ -4179,7 +4173,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="30" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>96</v>
       </c>
@@ -4205,7 +4199,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="31" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>101</v>
       </c>
@@ -4231,7 +4225,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="32" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>104</v>
       </c>
@@ -4257,7 +4251,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="33" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>109</v>
       </c>
@@ -4283,7 +4277,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="34" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" ht="375" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>114</v>
       </c>
@@ -4309,7 +4303,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="35" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>119</v>
       </c>
@@ -4335,7 +4329,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="36" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" ht="390" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>124</v>
       </c>
@@ -4361,7 +4355,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="37" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>127</v>
       </c>
@@ -4387,7 +4381,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="38" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" ht="375" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>132</v>
       </c>
@@ -4413,7 +4407,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="39" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" ht="210" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>136</v>
       </c>
@@ -4439,7 +4433,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="40" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" ht="405" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>140</v>
       </c>
@@ -4465,7 +4459,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="41" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" ht="270" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>143</v>
       </c>
@@ -4491,7 +4485,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="42" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" ht="180" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>148</v>
       </c>
@@ -4517,7 +4511,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="43" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" ht="135" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>153</v>
       </c>
@@ -4543,7 +4537,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="44" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>156</v>
       </c>
@@ -4569,7 +4563,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="45" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" ht="225" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>159</v>
       </c>
@@ -4595,7 +4589,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="46" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>163</v>
       </c>
@@ -4621,7 +4615,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="47" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>167</v>
       </c>
@@ -4647,7 +4641,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="48" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>171</v>
       </c>
@@ -4673,7 +4667,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="49" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" ht="405" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>174</v>
       </c>
@@ -4699,7 +4693,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="50" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" ht="345" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>177</v>
       </c>
@@ -4725,7 +4719,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="51" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>180</v>
       </c>
@@ -4751,7 +4745,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="52" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" ht="300" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>183</v>
       </c>
@@ -4777,7 +4771,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="53" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" ht="315" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>186</v>
       </c>
@@ -4803,7 +4797,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="54" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>191</v>
       </c>
@@ -4829,7 +4823,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="55" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>195</v>
       </c>
@@ -4855,7 +4849,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="56" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" ht="390" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>198</v>
       </c>
@@ -4881,7 +4875,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="57" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" ht="240" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>201</v>
       </c>
@@ -4907,7 +4901,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="58" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" ht="315" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>206</v>
       </c>
@@ -4933,7 +4927,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="59" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" ht="270" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>209</v>
       </c>
@@ -4959,7 +4953,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="60" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" ht="405" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>212</v>
       </c>
@@ -4985,7 +4979,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="61" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>214</v>
       </c>
@@ -5011,7 +5005,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="62" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>216</v>
       </c>
@@ -5037,7 +5031,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="63" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>217</v>
       </c>
@@ -5063,7 +5057,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="64" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>218</v>
       </c>
@@ -5089,7 +5083,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="65" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>219</v>
       </c>
@@ -5115,7 +5109,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="66" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>220</v>
       </c>
@@ -5141,7 +5135,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="67" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>221</v>
       </c>
@@ -5167,7 +5161,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="68" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>222</v>
       </c>
@@ -5193,7 +5187,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="69" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>223</v>
       </c>
@@ -5219,7 +5213,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="70" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>224</v>
       </c>
@@ -5245,7 +5239,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="71" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>225</v>
       </c>
@@ -5271,7 +5265,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="72" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>226</v>
       </c>
@@ -5297,7 +5291,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="73" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>227</v>
       </c>
@@ -5323,7 +5317,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="74" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>228</v>
       </c>
@@ -5349,7 +5343,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="75" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>229</v>
       </c>
@@ -5375,7 +5369,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="76" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>230</v>
       </c>
@@ -5401,7 +5395,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="77" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>231</v>
       </c>
@@ -5427,7 +5421,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="78" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>235</v>
       </c>
@@ -5453,7 +5447,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="79" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" ht="300" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>239</v>
       </c>
@@ -5479,7 +5473,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="80" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" ht="405" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>244</v>
       </c>
@@ -5505,7 +5499,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="81" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>247</v>
       </c>
@@ -5531,7 +5525,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="82" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" ht="195" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>250</v>
       </c>
@@ -5557,7 +5551,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="83" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>253</v>
       </c>
@@ -5583,7 +5577,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="84" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>258</v>
       </c>
@@ -5609,7 +5603,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="85" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>261</v>
       </c>
@@ -5635,7 +5629,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="86" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>264</v>
       </c>
@@ -5661,7 +5655,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="87" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>269</v>
       </c>
@@ -5687,7 +5681,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="88" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
         <v>274</v>
       </c>
@@ -5713,7 +5707,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="89" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" ht="225" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
         <v>277</v>
       </c>
@@ -5739,7 +5733,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="90" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" ht="195" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
         <v>280</v>
       </c>
@@ -5765,7 +5759,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="91" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" ht="150" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
         <v>283</v>
       </c>
@@ -5791,7 +5785,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="92" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
         <v>287</v>
       </c>
@@ -5817,7 +5811,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="93" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
         <v>290</v>
       </c>
@@ -5843,7 +5837,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="94" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
         <v>293</v>
       </c>
@@ -5869,7 +5863,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="95" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" ht="105" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
         <v>296</v>
       </c>
@@ -5895,7 +5889,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="96" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
         <v>299</v>
       </c>
@@ -5921,7 +5915,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="97" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" ht="105" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
         <v>302</v>
       </c>
@@ -5947,7 +5941,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="98" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
         <v>305</v>
       </c>
@@ -5973,7 +5967,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="99" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
         <v>308</v>
       </c>
@@ -5999,7 +5993,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="100" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
         <v>312</v>
       </c>
@@ -6025,7 +6019,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="101" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
         <v>316</v>
       </c>
@@ -6051,7 +6045,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="102" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" ht="150" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
         <v>320</v>
       </c>
@@ -6077,7 +6071,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="103" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
         <v>323</v>
       </c>
@@ -6103,7 +6097,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="104" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
         <v>328</v>
       </c>
@@ -6129,7 +6123,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="105" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
         <v>331</v>
       </c>
@@ -6155,7 +6149,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="106" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
         <v>334</v>
       </c>
@@ -6181,7 +6175,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="107" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
         <v>339</v>
       </c>
@@ -6207,7 +6201,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="108" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
         <v>342</v>
       </c>
@@ -6233,7 +6227,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="109" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" ht="135" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
         <v>345</v>
       </c>
@@ -6259,7 +6253,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="110" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" ht="135" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
         <v>348</v>
       </c>
@@ -6285,7 +6279,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="111" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
         <v>352</v>
       </c>
@@ -6311,7 +6305,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="112" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8" ht="165" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
         <v>355</v>
       </c>
@@ -6337,7 +6331,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="113" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
         <v>358</v>
       </c>
@@ -6363,7 +6357,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="114" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
         <v>361</v>
       </c>
@@ -6389,7 +6383,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="115" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
         <v>364</v>
       </c>
@@ -6415,7 +6409,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="116" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
         <v>367</v>
       </c>
@@ -6441,7 +6435,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="117" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
         <v>370</v>
       </c>
@@ -6467,7 +6461,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="118" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
         <v>373</v>
       </c>
@@ -6493,7 +6487,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="119" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" ht="150" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
         <v>376</v>
       </c>
@@ -6519,7 +6513,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="120" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" ht="330" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
         <v>381</v>
       </c>
@@ -6545,7 +6539,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="121" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
         <v>384</v>
       </c>
@@ -6571,7 +6565,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="122" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8" ht="300" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
         <v>389</v>
       </c>
@@ -6597,7 +6591,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="123" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8" ht="195" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
         <v>393</v>
       </c>
@@ -6623,7 +6617,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="124" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8" ht="315" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
         <v>397</v>
       </c>
@@ -6649,7 +6643,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="125" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8" ht="285" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
         <v>401</v>
       </c>
@@ -6675,7 +6669,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="126" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8" ht="210" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
         <v>404</v>
       </c>
@@ -6701,7 +6695,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="127" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
         <v>408</v>
       </c>
@@ -6727,7 +6721,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="128" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:8" ht="390" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
         <v>414</v>
       </c>
@@ -6753,7 +6747,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="129" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
         <v>418</v>
       </c>
@@ -6779,7 +6773,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="130" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
         <v>422</v>
       </c>
@@ -6805,7 +6799,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="131" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
         <v>426</v>
       </c>
@@ -6831,7 +6825,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="132" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
         <v>430</v>
       </c>
@@ -6857,7 +6851,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="133" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
         <v>433</v>
       </c>
@@ -6883,7 +6877,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="134" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
         <v>438</v>
       </c>
@@ -6909,7 +6903,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="135" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
         <v>441</v>
       </c>
@@ -6935,7 +6929,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="136" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
         <v>444</v>
       </c>
@@ -6961,7 +6955,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="137" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
         <v>447</v>
       </c>
@@ -6987,7 +6981,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="138" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:8" ht="375" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
         <v>451</v>
       </c>
@@ -7013,7 +7007,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="139" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
         <v>455</v>
       </c>
@@ -7039,7 +7033,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="140" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:8" ht="375" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
         <v>458</v>
       </c>
@@ -7065,7 +7059,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="141" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
         <v>461</v>
       </c>
@@ -7091,7 +7085,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="142" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:8" ht="360" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
         <v>464</v>
       </c>
@@ -7117,7 +7111,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="143" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:8" ht="255" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
         <v>467</v>
       </c>
@@ -7143,7 +7137,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="144" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:8" ht="285" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
         <v>470</v>
       </c>
@@ -7169,7 +7163,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="145" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
         <v>473</v>
       </c>
@@ -7195,7 +7189,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="146" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:8" ht="330" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
         <v>476</v>
       </c>
@@ -7221,7 +7215,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="147" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
         <v>479</v>
       </c>
@@ -7247,7 +7241,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="148" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:8" ht="375" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
         <v>482</v>
       </c>
@@ -7273,7 +7267,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="149" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:8" ht="255" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
         <v>485</v>
       </c>
@@ -7299,7 +7293,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="150" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:8" ht="240" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
         <v>489</v>
       </c>
@@ -7325,7 +7319,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="151" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
         <v>492</v>
       </c>
@@ -7351,7 +7345,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="152" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
         <v>496</v>
       </c>
@@ -7377,7 +7371,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="153" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
         <v>500</v>
       </c>
@@ -7403,7 +7397,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="154" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
         <v>503</v>
       </c>
@@ -7429,7 +7423,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="155" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
         <v>507</v>
       </c>
@@ -7455,7 +7449,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="156" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:8" ht="255" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
         <v>510</v>
       </c>
@@ -7481,7 +7475,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="157" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:8" ht="375" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
         <v>513</v>
       </c>
@@ -7507,7 +7501,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="158" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:8" ht="300" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
         <v>516</v>
       </c>
@@ -7533,7 +7527,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="159" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:8" ht="390" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
         <v>520</v>
       </c>
@@ -7559,7 +7553,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="160" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:8" ht="405" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
         <v>523</v>
       </c>
@@ -7585,7 +7579,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="161" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:8" ht="390" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
         <v>527</v>
       </c>
@@ -7611,7 +7605,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="162" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
         <v>530</v>
       </c>
@@ -7637,7 +7631,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="163" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
         <v>535</v>
       </c>
@@ -7663,7 +7657,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="164" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:8" ht="180" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
         <v>539</v>
       </c>
@@ -7689,7 +7683,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="165" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:8" ht="255" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
         <v>542</v>
       </c>
@@ -7715,7 +7709,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="166" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:8" ht="105" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
         <v>545</v>
       </c>
@@ -7741,7 +7735,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="167" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:8" ht="180" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
         <v>548</v>
       </c>
@@ -7767,7 +7761,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="168" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
         <v>552</v>
       </c>
@@ -7793,7 +7787,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="169" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:8" ht="360" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
         <v>558</v>
       </c>
@@ -7819,7 +7813,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="170" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
         <v>561</v>
       </c>
@@ -7845,7 +7839,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="171" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
         <v>564</v>
       </c>
@@ -7871,7 +7865,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="172" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
         <v>567</v>
       </c>
@@ -7897,7 +7891,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="173" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
         <v>571</v>
       </c>
@@ -7923,7 +7917,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="174" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
         <v>575</v>
       </c>
@@ -7949,7 +7943,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="175" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:8" ht="345" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
         <v>578</v>
       </c>
@@ -7975,7 +7969,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="176" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:8" ht="390" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
         <v>583</v>
       </c>
@@ -8001,7 +7995,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="177" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
         <v>586</v>
       </c>
@@ -8027,7 +8021,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="178" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
         <v>589</v>
       </c>
@@ -8053,7 +8047,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="179" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:8" ht="375" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
         <v>592</v>
       </c>
@@ -8079,7 +8073,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="180" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
         <v>596</v>
       </c>
@@ -8105,7 +8099,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="181" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
         <v>599</v>
       </c>
@@ -8131,7 +8125,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="182" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:8" ht="270" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
         <v>603</v>
       </c>
@@ -8157,7 +8151,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="183" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:8" ht="405" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
         <v>608</v>
       </c>
@@ -8183,7 +8177,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="184" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
         <v>611</v>
       </c>
@@ -8209,7 +8203,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="185" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:8" ht="390" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
         <v>614</v>
       </c>
@@ -8235,7 +8229,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="186" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:8" ht="375" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
         <v>617</v>
       </c>
@@ -8261,7 +8255,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="187" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:8" ht="195" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="s">
         <v>620</v>
       </c>
@@ -8287,7 +8281,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="188" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
         <v>624</v>
       </c>
@@ -8313,7 +8307,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="189" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="s">
         <v>629</v>
       </c>
@@ -8339,7 +8333,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="190" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
         <v>632</v>
       </c>
@@ -8365,7 +8359,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="191" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:8" ht="210" x14ac:dyDescent="0.25">
       <c r="A191" s="2" t="s">
         <v>635</v>
       </c>
@@ -8391,7 +8385,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="192" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A192" s="2" t="s">
         <v>640</v>
       </c>
@@ -8417,7 +8411,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="193" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A193" s="2" t="s">
         <v>644</v>
       </c>
@@ -8443,7 +8437,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="194" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
         <v>647</v>
       </c>
@@ -8469,7 +8463,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="195" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="s">
         <v>650</v>
       </c>
@@ -8495,7 +8489,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="196" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A196" s="2" t="s">
         <v>653</v>
       </c>
@@ -8521,7 +8515,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="197" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A197" s="2" t="s">
         <v>658</v>
       </c>
@@ -8547,7 +8541,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="198" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:8" ht="360" x14ac:dyDescent="0.25">
       <c r="A198" s="2" t="s">
         <v>662</v>
       </c>
@@ -8573,7 +8567,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="199" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A199" s="2" t="s">
         <v>665</v>
       </c>
@@ -8599,7 +8593,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="200" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:8" ht="150" x14ac:dyDescent="0.25">
       <c r="A200" s="2" t="s">
         <v>669</v>
       </c>
@@ -8625,7 +8619,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="201" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:8" ht="345" x14ac:dyDescent="0.25">
       <c r="A201" s="2" t="s">
         <v>673</v>
       </c>
@@ -8651,7 +8645,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="202" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:8" ht="195" x14ac:dyDescent="0.25">
       <c r="A202" s="2" t="s">
         <v>676</v>
       </c>
@@ -8677,7 +8671,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="203" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:8" ht="225" x14ac:dyDescent="0.25">
       <c r="A203" s="2" t="s">
         <v>679</v>
       </c>
@@ -8703,7 +8697,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="204" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:8" ht="300" x14ac:dyDescent="0.25">
       <c r="A204" s="2" t="s">
         <v>682</v>
       </c>
@@ -8729,7 +8723,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="205" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:8" ht="300" x14ac:dyDescent="0.25">
       <c r="A205" s="2" t="s">
         <v>685</v>
       </c>
@@ -8755,7 +8749,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="206" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:8" ht="360" x14ac:dyDescent="0.25">
       <c r="A206" s="2" t="s">
         <v>688</v>
       </c>
@@ -8781,7 +8775,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="207" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A207" s="2" t="s">
         <v>691</v>
       </c>
@@ -8807,7 +8801,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="208" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:8" ht="195" x14ac:dyDescent="0.25">
       <c r="A208" s="2" t="s">
         <v>694</v>
       </c>
@@ -8833,7 +8827,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="209" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:8" ht="345" x14ac:dyDescent="0.25">
       <c r="A209" s="2" t="s">
         <v>697</v>
       </c>
@@ -8859,7 +8853,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="210" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A210" s="2" t="s">
         <v>700</v>
       </c>
@@ -8885,7 +8879,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="211" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:8" ht="210" x14ac:dyDescent="0.25">
       <c r="A211" s="2" t="s">
         <v>703</v>
       </c>
@@ -8911,7 +8905,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="212" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:8" ht="240" x14ac:dyDescent="0.25">
       <c r="A212" s="2" t="s">
         <v>708</v>
       </c>
@@ -8937,7 +8931,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="213" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:8" ht="285" x14ac:dyDescent="0.25">
       <c r="A213" s="2" t="s">
         <v>711</v>
       </c>
@@ -8963,7 +8957,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="214" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A214" s="2" t="s">
         <v>715</v>
       </c>
@@ -8989,7 +8983,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="215" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:8" ht="255" x14ac:dyDescent="0.25">
       <c r="A215" s="2" t="s">
         <v>718</v>
       </c>
@@ -9015,7 +9009,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="216" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A216" s="2" t="s">
         <v>721</v>
       </c>
@@ -9041,7 +9035,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="217" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A217" s="2" t="s">
         <v>724</v>
       </c>
@@ -9067,7 +9061,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="218" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A218" s="2" t="s">
         <v>727</v>
       </c>
@@ -9093,7 +9087,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="219" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A219" s="2" t="s">
         <v>730</v>
       </c>
@@ -9119,7 +9113,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="220" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A220" s="2" t="s">
         <v>735</v>
       </c>
@@ -9145,7 +9139,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="221" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A221" s="2" t="s">
         <v>738</v>
       </c>
@@ -9171,7 +9165,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="222" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A222" s="2" t="s">
         <v>741</v>
       </c>
@@ -9197,7 +9191,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="223" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A223" s="2" t="s">
         <v>744</v>
       </c>
@@ -9223,7 +9217,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="224" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A224" s="2" t="s">
         <v>747</v>
       </c>
@@ -9249,7 +9243,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="225" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A225" s="2" t="s">
         <v>750</v>
       </c>
@@ -9275,7 +9269,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="226" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A226" s="2" t="s">
         <v>753</v>
       </c>
@@ -9301,7 +9295,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="227" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:8" ht="390" x14ac:dyDescent="0.25">
       <c r="A227" s="2" t="s">
         <v>756</v>
       </c>
@@ -9327,7 +9321,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="228" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A228" s="2" t="s">
         <v>759</v>
       </c>
@@ -9353,7 +9347,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="229" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A229" s="2" t="s">
         <v>762</v>
       </c>
@@ -9379,7 +9373,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="230" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:8" ht="405" x14ac:dyDescent="0.25">
       <c r="A230" s="2" t="s">
         <v>765</v>
       </c>
@@ -9405,7 +9399,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="231" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:8" ht="270" x14ac:dyDescent="0.25">
       <c r="A231" s="2" t="s">
         <v>768</v>
       </c>
@@ -9431,7 +9425,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="232" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:8" ht="285" x14ac:dyDescent="0.25">
       <c r="A232" s="2" t="s">
         <v>771</v>
       </c>
@@ -9457,7 +9451,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="233" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:8" ht="225" x14ac:dyDescent="0.25">
       <c r="A233" s="2" t="s">
         <v>774</v>
       </c>
@@ -9483,7 +9477,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="234" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:8" ht="225" x14ac:dyDescent="0.25">
       <c r="A234" s="2" t="s">
         <v>777</v>
       </c>
@@ -9509,7 +9503,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="235" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A235" s="2" t="s">
         <v>780</v>
       </c>
@@ -9535,7 +9529,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="236" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A236" s="2" t="s">
         <v>783</v>
       </c>
@@ -9561,7 +9555,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="237" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A237" s="2" t="s">
         <v>786</v>
       </c>
@@ -9587,7 +9581,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="238" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A238" s="2" t="s">
         <v>791</v>
       </c>
@@ -9613,7 +9607,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="239" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A239" s="2" t="s">
         <v>794</v>
       </c>
@@ -9639,7 +9633,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="240" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:8" ht="330" x14ac:dyDescent="0.25">
       <c r="A240" s="2" t="s">
         <v>799</v>
       </c>
@@ -9665,7 +9659,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="241" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:8" ht="285" x14ac:dyDescent="0.25">
       <c r="A241" s="2" t="s">
         <v>802</v>
       </c>
@@ -9691,7 +9685,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="242" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A242" s="2" t="s">
         <v>805</v>
       </c>
@@ -9717,7 +9711,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="243" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A243" s="2" t="s">
         <v>810</v>
       </c>
@@ -9743,7 +9737,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="244" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A244" s="2" t="s">
         <v>813</v>
       </c>
@@ -9769,7 +9763,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="245" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A245" s="2" t="s">
         <v>816</v>
       </c>
@@ -9795,7 +9789,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="246" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A246" s="2" t="s">
         <v>819</v>
       </c>
@@ -9821,7 +9815,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="247" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A247" s="2" t="s">
         <v>823</v>
       </c>
